--- a/Unity/Assets/Config/Excel/ChargeConfig.xlsx
+++ b/Unity/Assets/Config/Excel/ChargeConfig.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
   <si>
     <t>##var</t>
   </si>
@@ -35,18 +35,27 @@
     <t>Id</t>
   </si>
   <si>
+    <t>##Desc</t>
+  </si>
+  <si>
     <t>Price</t>
   </si>
   <si>
+    <t>Pack</t>
+  </si>
+  <si>
     <t>##type</t>
   </si>
   <si>
-    <t>int</t>
+    <t>string</t>
   </si>
   <si>
     <t>long</t>
   </si>
   <si>
+    <t>int#ref=ItemPackConfigCategory</t>
+  </si>
+  <si>
     <t>##group</t>
   </si>
   <si>
@@ -56,7 +65,73 @@
     <t>商品编号</t>
   </si>
   <si>
-    <t>价格</t>
+    <t>商品描述</t>
+  </si>
+  <si>
+    <t>价格（元）</t>
+  </si>
+  <si>
+    <t>礼包</t>
+  </si>
+  <si>
+    <t>付费道具770001</t>
+  </si>
+  <si>
+    <t>付费道具770002</t>
+  </si>
+  <si>
+    <t>付费道具770003</t>
+  </si>
+  <si>
+    <t>付费道具770004</t>
+  </si>
+  <si>
+    <t>付费道具770005</t>
+  </si>
+  <si>
+    <t>付费道具770006</t>
+  </si>
+  <si>
+    <t>付费道具770007</t>
+  </si>
+  <si>
+    <t>付费道具770008</t>
+  </si>
+  <si>
+    <t>付费道具770009</t>
+  </si>
+  <si>
+    <t>付费道具770010</t>
+  </si>
+  <si>
+    <t>付费道具770011</t>
+  </si>
+  <si>
+    <t>付费道具770012</t>
+  </si>
+  <si>
+    <t>付费道具770013</t>
+  </si>
+  <si>
+    <t>付费道具770014</t>
+  </si>
+  <si>
+    <t>付费道具770015</t>
+  </si>
+  <si>
+    <t>付费道具770016</t>
+  </si>
+  <si>
+    <t>付费道具770017</t>
+  </si>
+  <si>
+    <t>付费道具770018</t>
+  </si>
+  <si>
+    <t>付费道具770019</t>
+  </si>
+  <si>
+    <t>付费道具770020</t>
   </si>
 </sst>
 </file>
@@ -1052,22 +1127,23 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F14"/>
+  <dimension ref="A1:G24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelCol="6"/>
   <cols>
     <col min="1" max="1" width="12.75" style="4" customWidth="1"/>
-    <col min="2" max="2" width="20" style="5" customWidth="1"/>
-    <col min="3" max="3" width="26.125" style="5" customWidth="1"/>
-    <col min="4" max="6" width="9" style="5"/>
-    <col min="7" max="16384" width="9" style="6"/>
+    <col min="2" max="3" width="20" style="5" customWidth="1"/>
+    <col min="4" max="4" width="26.125" style="5" customWidth="1"/>
+    <col min="5" max="5" width="33.875" style="5" customWidth="1"/>
+    <col min="6" max="7" width="9" style="5"/>
+    <col min="8" max="16384" width="9" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:6">
+    <row r="1" s="1" customFormat="1" spans="1:7">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -1077,126 +1153,340 @@
       <c r="C1" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
+      <c r="D1" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>4</v>
+      </c>
       <c r="F1" s="9"/>
-    </row>
-    <row r="2" s="2" customFormat="1" spans="1:6">
+      <c r="G1" s="9"/>
+    </row>
+    <row r="2" s="2" customFormat="1" spans="1:7">
       <c r="A2" s="10" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" s="12"/>
-      <c r="E2" s="12"/>
+        <v>6</v>
+      </c>
+      <c r="C2" s="11"/>
+      <c r="D2" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="12" t="s">
+        <v>8</v>
+      </c>
       <c r="F2" s="12"/>
-    </row>
-    <row r="3" s="3" customFormat="1" spans="1:6">
+      <c r="G2" s="12"/>
+    </row>
+    <row r="3" s="3" customFormat="1" spans="1:7">
       <c r="A3" s="13" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B3" s="14"/>
       <c r="C3" s="14"/>
-      <c r="D3" s="15"/>
+      <c r="D3" s="14"/>
       <c r="E3" s="15"/>
       <c r="F3" s="15"/>
-    </row>
-    <row r="4" s="1" customFormat="1" spans="1:6">
+      <c r="G3" s="15"/>
+    </row>
+    <row r="4" s="1" customFormat="1" spans="1:7">
       <c r="A4" s="7" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4" s="9"/>
-      <c r="E4" s="9"/>
+        <v>12</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" s="9" t="s">
+        <v>14</v>
+      </c>
       <c r="F4" s="9"/>
-    </row>
-    <row r="5" spans="2:3">
+      <c r="G4" s="9"/>
+    </row>
+    <row r="5" spans="2:5">
       <c r="B5" s="5">
         <v>770001</v>
       </c>
-      <c r="C5" s="5">
+      <c r="C5" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="2:3">
+      <c r="E5" s="5">
+        <v>930001</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5">
       <c r="B6" s="5">
         <v>770002</v>
       </c>
-      <c r="C6" s="5">
+      <c r="C6" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" s="5">
         <v>6</v>
       </c>
-    </row>
-    <row r="7" spans="2:3">
+      <c r="E6" s="5">
+        <v>930001</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5">
       <c r="B7" s="5">
         <v>770003</v>
       </c>
-      <c r="C7" s="5">
+      <c r="C7" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7" s="5">
         <v>12</v>
       </c>
-    </row>
-    <row r="8" spans="2:3">
+      <c r="E7" s="5">
+        <v>930001</v>
+      </c>
+    </row>
+    <row r="8" spans="2:5">
       <c r="B8" s="5">
         <v>770004</v>
       </c>
-      <c r="C8" s="5">
+      <c r="C8" s="5" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="9" spans="2:3">
+      <c r="D8" s="5">
+        <v>18</v>
+      </c>
+      <c r="E8" s="5">
+        <v>930001</v>
+      </c>
+    </row>
+    <row r="9" spans="2:5">
       <c r="B9" s="5">
         <v>770005</v>
       </c>
-      <c r="C9" s="5">
+      <c r="C9" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D9" s="5">
         <v>30</v>
       </c>
-    </row>
-    <row r="10" spans="2:3">
+      <c r="E9" s="5">
+        <v>930001</v>
+      </c>
+    </row>
+    <row r="10" spans="2:5">
       <c r="B10" s="5">
         <v>770006</v>
       </c>
-      <c r="C10" s="5">
+      <c r="C10" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D10" s="5">
         <v>68</v>
       </c>
-    </row>
-    <row r="11" spans="2:3">
+      <c r="E10" s="5">
+        <v>930001</v>
+      </c>
+    </row>
+    <row r="11" spans="2:5">
       <c r="B11" s="5">
         <v>770007</v>
       </c>
-      <c r="C11" s="5">
+      <c r="C11" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D11" s="5">
         <v>98</v>
       </c>
-    </row>
-    <row r="12" spans="2:3">
+      <c r="E11" s="5">
+        <v>930001</v>
+      </c>
+    </row>
+    <row r="12" spans="2:5">
       <c r="B12" s="5">
         <v>770008</v>
       </c>
-      <c r="C12" s="5">
+      <c r="C12" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D12" s="5">
         <v>128</v>
       </c>
-    </row>
-    <row r="13" spans="2:3">
+      <c r="E12" s="5">
+        <v>930001</v>
+      </c>
+    </row>
+    <row r="13" spans="2:5">
       <c r="B13" s="5">
         <v>770009</v>
       </c>
-      <c r="C13" s="5">
+      <c r="C13" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D13" s="5">
         <v>328</v>
       </c>
-    </row>
-    <row r="14" spans="2:3">
+      <c r="E13" s="5">
+        <v>930001</v>
+      </c>
+    </row>
+    <row r="14" spans="2:5">
       <c r="B14" s="5">
         <v>770010</v>
       </c>
-      <c r="C14" s="5">
+      <c r="C14" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D14" s="5">
         <v>648</v>
+      </c>
+      <c r="E14" s="5">
+        <v>930001</v>
+      </c>
+    </row>
+    <row r="15" spans="2:5">
+      <c r="B15" s="5">
+        <v>770011</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" s="5">
+        <v>1</v>
+      </c>
+      <c r="E15" s="5">
+        <v>930001</v>
+      </c>
+    </row>
+    <row r="16" spans="2:5">
+      <c r="B16" s="5">
+        <v>770012</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" s="5">
+        <v>6</v>
+      </c>
+      <c r="E16" s="5">
+        <v>930001</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5">
+      <c r="B17" s="5">
+        <v>770013</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17" s="5">
+        <v>12</v>
+      </c>
+      <c r="E17" s="5">
+        <v>930001</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5">
+      <c r="B18" s="5">
+        <v>770014</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D18" s="5">
+        <v>18</v>
+      </c>
+      <c r="E18" s="5">
+        <v>930001</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5">
+      <c r="B19" s="5">
+        <v>770015</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="D19" s="5">
+        <v>30</v>
+      </c>
+      <c r="E19" s="5">
+        <v>930001</v>
+      </c>
+    </row>
+    <row r="20" spans="2:5">
+      <c r="B20" s="5">
+        <v>770016</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="D20" s="5">
+        <v>68</v>
+      </c>
+      <c r="E20" s="5">
+        <v>930001</v>
+      </c>
+    </row>
+    <row r="21" spans="2:5">
+      <c r="B21" s="5">
+        <v>770017</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="D21" s="5">
+        <v>98</v>
+      </c>
+      <c r="E21" s="5">
+        <v>930001</v>
+      </c>
+    </row>
+    <row r="22" spans="2:5">
+      <c r="B22" s="5">
+        <v>770018</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="D22" s="5">
+        <v>128</v>
+      </c>
+      <c r="E22" s="5">
+        <v>930001</v>
+      </c>
+    </row>
+    <row r="23" spans="2:5">
+      <c r="B23" s="5">
+        <v>770019</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="D23" s="5">
+        <v>328</v>
+      </c>
+      <c r="E23" s="5">
+        <v>930001</v>
+      </c>
+    </row>
+    <row r="24" spans="2:5">
+      <c r="B24" s="5">
+        <v>770020</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="D24" s="5">
+        <v>648</v>
+      </c>
+      <c r="E24" s="5">
+        <v>930001</v>
       </c>
     </row>
   </sheetData>
